--- a/Excel/sp_q.xlsx
+++ b/Excel/sp_q.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolga\OneDrive - Dokuz Eylül Üniversitesi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolga\Trading Bot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D620E87E-640E-4B58-A2F1-E25D0A01EDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4611F046-97DF-4600-9009-28AF01BB770F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>S&amp;P 500 Change</t>
+    <t>sp500</t>
   </si>
 </sst>
 </file>
@@ -116,8 +116,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/sp_q.xlsx
+++ b/Excel/sp_q.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolga\Trading Bot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4611F046-97DF-4600-9009-28AF01BB770F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879ECFEE-63C8-4B5F-BACA-26DF3D6A61A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,36 +45,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -82,42 +62,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,8 +351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,938 +361,938 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>45200</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>3.71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>45108</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>-1.18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>45017</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>2.73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>44927</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>2.36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>44835</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>44743</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>-1.49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>44652</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>-5.73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>44562</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>-1.61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>44470</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>3.48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>44378</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>44287</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>2.67</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>44197</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>1.91</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>44105</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>3.9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>44013</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>2.87</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>43922</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>6.35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>43831</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>-7.03</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>43739</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>2.77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>43647</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>0.41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>43556</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>1.41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>43466</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>4.21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>43374</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>-4.78</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>43282</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>2.35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>43191</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>0.97</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="1">
         <v>43101</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25">
         <v>-0.32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>43009</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="1">
         <v>42917</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27">
         <v>1.31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>42826</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>0.85</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>42736</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29">
         <v>1.82</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>42644</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>42552</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31">
         <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>42461</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32">
         <v>0.63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="1">
         <v>42370</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33">
         <v>0.37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>42278</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="1">
         <v>42186</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35">
         <v>-2.31</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <v>42095</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="1">
         <v>42005</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37">
         <v>0.22</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="1">
         <v>41913</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38">
         <v>1.45</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="1">
         <v>41821</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39">
         <v>0.24</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="1">
         <v>41730</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40">
         <v>1.54</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="1">
         <v>41640</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41">
         <v>0.48</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="1">
         <v>41548</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42">
         <v>3.21</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="1">
         <v>41456</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43">
         <v>1.59</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="1">
         <v>41365</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44">
         <v>0.79</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="1">
         <v>41275</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45">
         <v>3.25</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="1">
         <v>41183</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46">
         <v>-0.33</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="1">
         <v>41091</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47">
         <v>1.89</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="1">
         <v>41000</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48">
         <v>-1.02</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="1">
         <v>40909</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49">
         <v>3.85</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="1">
         <v>40817</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50">
         <v>3.71</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="1">
         <v>40725</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51">
         <v>-5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="1">
         <v>40634</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52">
         <v>-0.11</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="1">
         <v>40544</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53">
         <v>1.79</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="1">
         <v>40452</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54">
         <v>3.33</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="1">
         <v>40360</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55">
         <v>3.63</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="1">
         <v>40269</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56">
         <v>-4.04</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="1">
         <v>40179</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57">
         <v>1.68</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="1">
         <v>40087</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58">
         <v>1.84</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="1">
         <v>39995</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59">
         <v>4.78</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="1">
         <v>39904</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="1">
         <v>39814</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61">
         <v>-3.67</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="1">
         <v>39722</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62">
         <v>-7.88</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="1">
         <v>39630</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63">
         <v>-2.94</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="1">
         <v>39539</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64">
         <v>-0.92</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="1">
         <v>39448</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65">
         <v>-3.39</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="1">
         <v>39356</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66">
         <v>-1.26</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="1">
         <v>39264</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="1">
         <v>39173</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68">
         <v>1.93</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="1">
         <v>39083</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="1">
         <v>38991</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70">
         <v>2.02</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="1">
         <v>38899</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71">
         <v>1.69</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="1">
         <v>38808</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72">
         <v>-0.62</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="1">
         <v>38718</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73">
         <v>1.23</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="1">
         <v>38626</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="1">
         <v>38534</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75">
         <v>1.06</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="1">
         <v>38443</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76">
         <v>0.32</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="1">
         <v>38353</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77">
         <v>-0.85</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78" s="1">
         <v>38261</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78">
         <v>2.84</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="1">
         <v>38169</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79">
         <v>-0.75</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80" s="1">
         <v>38078</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80">
         <v>0.44</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="1">
         <v>37987</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81">
         <v>0.44</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82" s="1">
         <v>37895</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82">
         <v>3.76</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="1">
         <v>37803</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83">
         <v>0.74</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="A84" s="1">
         <v>37712</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84">
         <v>4.7699999999999996</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="1">
         <v>37622</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85">
         <v>-1.2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86" s="1">
         <v>37530</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86">
         <v>2.77</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="1">
         <v>37438</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87">
         <v>-6.14</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88" s="1">
         <v>37347</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88">
         <v>-4.76</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="1">
         <v>37257</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89">
         <v>0.01</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90" s="1">
         <v>37165</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90">
         <v>3.36</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="1">
         <v>37073</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91">
         <v>-5.22</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="A92" s="1">
         <v>36982</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92">
         <v>1.9</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="1">
         <v>36892</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93">
         <v>-4.0599999999999996</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94" s="1">
         <v>36800</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94">
         <v>-2.7</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="1">
         <v>36708</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95">
         <v>-0.31</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="A96" s="1">
         <v>36617</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96">
         <v>-0.96</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="1">
         <v>36526</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97">
         <v>0.86</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="A98" s="1">
         <v>36434</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98">
         <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="1">
         <v>36342</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99">
         <v>-2.23</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="A100" s="1">
         <v>36251</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100">
         <v>2.25</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="1">
         <v>36161</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101">
         <v>1.58</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="A102" s="1">
         <v>36069</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102">
         <v>6.53</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="1">
         <v>35977</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103">
         <v>-3.17</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="A104" s="1">
         <v>35886</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104">
         <v>0.99</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="1">
         <v>35796</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105">
         <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="A106" s="1">
         <v>35704</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B106">
         <v>0.86</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+      <c r="A107" s="1">
         <v>35612</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107">
         <v>2.46</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="A108" s="1">
         <v>35521</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108">
         <v>5.35</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+      <c r="A109" s="1">
         <v>35431</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109">
         <v>0.82</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="A110" s="1">
         <v>35339</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B110">
         <v>2.6</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+      <c r="A111" s="1">
         <v>35247</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111">
         <v>0.91</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+      <c r="A112" s="1">
         <v>35156</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112">
         <v>1.28</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
+      <c r="A113" s="1">
         <v>35065</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113">
         <v>1.58</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+      <c r="A114" s="1">
         <v>34973</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B114">
         <v>1.78</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
+      <c r="A115" s="1">
         <v>34881</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115">
         <v>2.38</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+      <c r="A116" s="1">
         <v>34790</v>
       </c>
-      <c r="B116" s="5">
+      <c r="B116">
         <v>2.86</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+      <c r="A117" s="1">
         <v>34700</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117">
         <v>2.92</v>
       </c>
     </row>
